--- a/data/testing/AZN.L_filtered.xlsx
+++ b/data/testing/AZN.L_filtered.xlsx
@@ -1,75 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanju\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01E338C-97A5-48E5-8240-12D23E01908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Adj Close</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,51 +49,101 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -200,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -235,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,1489 +424,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Adj Close</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45293</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>10632</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>10838</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>10534</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>10788</v>
       </c>
-      <c r="F2">
-        <v>10621.40625</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>10556.455078125</v>
+      </c>
+      <c r="G2" t="n">
         <v>1688733</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45294</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>10686</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>10810</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>10626</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>10740</v>
       </c>
-      <c r="F3">
-        <v>10574.1474609375</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="n">
+        <v>10509.486328125</v>
+      </c>
+      <c r="G3" t="n">
         <v>2972338</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45295</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>10768</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>10902</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>10746</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>10864</v>
       </c>
-      <c r="F4">
-        <v>10696.232421875</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="n">
+        <v>10630.82421875</v>
+      </c>
+      <c r="G4" t="n">
         <v>1896074</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45296</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>10756</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>10842</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>10714</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>10758</v>
       </c>
-      <c r="F5">
-        <v>10591.8701171875</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="n">
+        <v>10527.099609375</v>
+      </c>
+      <c r="G5" t="n">
         <v>1161094</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45299</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>10716</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>10772</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>10676</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>10772</v>
       </c>
-      <c r="F6">
-        <v>10605.6533203125</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="n">
+        <v>10540.798828125</v>
+      </c>
+      <c r="G6" t="n">
         <v>1921363</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45300</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>10834</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>10918</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>10814</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>10902</v>
       </c>
-      <c r="F7">
-        <v>10733.6455078125</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>10668.0087890625</v>
+      </c>
+      <c r="G7" t="n">
         <v>3005457</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45301</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>10830</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>10926</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>10810</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>10900</v>
       </c>
-      <c r="F8">
-        <v>10731.6767578125</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="n">
+        <v>10666.0517578125</v>
+      </c>
+      <c r="G8" t="n">
         <v>1411866</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45302</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>10928</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>11022</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>10716</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>10830</v>
       </c>
-      <c r="F9">
-        <v>10662.7578125</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="n">
+        <v>10597.5537109375</v>
+      </c>
+      <c r="G9" t="n">
         <v>2156932</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45303</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>10838</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>10888</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>10814</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>10862</v>
       </c>
-      <c r="F10">
-        <v>10694.263671875</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="n">
+        <v>10628.8671875</v>
+      </c>
+      <c r="G10" t="n">
         <v>1212597</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45306</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>10824</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>10900</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>10804</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>10852</v>
       </c>
-      <c r="F11">
-        <v>10684.41796875</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="n">
+        <v>10619.08203125</v>
+      </c>
+      <c r="G11" t="n">
         <v>2283608</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45307</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>10714</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>10766</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>10478</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>10646</v>
       </c>
-      <c r="F12">
-        <v>10481.599609375</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="n">
+        <v>10417.5029296875</v>
+      </c>
+      <c r="G12" t="n">
         <v>2913853</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45308</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>10500</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>10570</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>10360</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>10446</v>
       </c>
-      <c r="F13">
-        <v>10284.6875</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="n">
+        <v>10221.7958984375</v>
+      </c>
+      <c r="G13" t="n">
         <v>2279952</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45309</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>10366</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>10434</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>10342</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>10432</v>
       </c>
-      <c r="F14">
-        <v>10270.904296875</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="n">
+        <v>10208.095703125</v>
+      </c>
+      <c r="G14" t="n">
         <v>4541622</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45310</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>10458</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>10654</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>10458</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>10508</v>
       </c>
-      <c r="F15">
-        <v>10345.73046875</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="n">
+        <v>10282.4658203125</v>
+      </c>
+      <c r="G15" t="n">
         <v>2568801</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45313</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>10468</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>10904</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>10452</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>10590</v>
       </c>
-      <c r="F16">
-        <v>10426.4638671875</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="n">
+        <v>10362.705078125</v>
+      </c>
+      <c r="G16" t="n">
         <v>4529556</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45314</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>10584</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>10626</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>10370</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>10452</v>
       </c>
-      <c r="F17">
-        <v>10290.5947265625</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>10227.6669921875</v>
+      </c>
+      <c r="G17" t="n">
         <v>3506309</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45315</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>10508</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>10536</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>10398</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>10454</v>
       </c>
-      <c r="F18">
-        <v>10292.564453125</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="n">
+        <v>10229.625</v>
+      </c>
+      <c r="G18" t="n">
         <v>1801745</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45316</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>10432</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>10474</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>10362</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>10448</v>
       </c>
-      <c r="F19">
-        <v>10286.6572265625</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="n">
+        <v>10223.7529296875</v>
+      </c>
+      <c r="G19" t="n">
         <v>1237869</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45317</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>10526</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>10660</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>10521.6796875</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>10546</v>
       </c>
-      <c r="F20">
-        <v>10383.1435546875</v>
-      </c>
-      <c r="G20">
+      <c r="F20" t="n">
+        <v>10319.650390625</v>
+      </c>
+      <c r="G20" t="n">
         <v>2343648</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45320</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>10550</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>10614</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>10512</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>10568</v>
       </c>
-      <c r="F21">
-        <v>10404.8037109375</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="n">
+        <v>10341.177734375</v>
+      </c>
+      <c r="G21" t="n">
         <v>1795640</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>45321</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>10578</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>10682</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>10562</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>10586</v>
       </c>
-      <c r="F22">
-        <v>10422.525390625</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="n">
+        <v>10358.791015625</v>
+      </c>
+      <c r="G22" t="n">
         <v>1999073</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>45322</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>10610</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>10654</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>10500</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>10500</v>
       </c>
-      <c r="F23">
-        <v>10337.853515625</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="n">
+        <v>10274.6376953125</v>
+      </c>
+      <c r="G23" t="n">
         <v>2715037</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>10548</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>10566</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>10392</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>10430</v>
       </c>
-      <c r="F24">
-        <v>10268.9345703125</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="n">
+        <v>10206.1396484375</v>
+      </c>
+      <c r="G24" t="n">
         <v>2269904</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>45324</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>10496</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>10510.1298828125</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>10360</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>10360</v>
       </c>
-      <c r="F25">
-        <v>10200.015625</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="n">
+        <v>10137.6416015625</v>
+      </c>
+      <c r="G25" t="n">
         <v>2943228</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45327</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>10360</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>10432</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>10306</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>10360</v>
       </c>
-      <c r="F26">
-        <v>10200.015625</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="n">
+        <v>10137.6416015625</v>
+      </c>
+      <c r="G26" t="n">
         <v>1682816</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>45328</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>10372</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>10544</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>10314</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>10534</v>
       </c>
-      <c r="F27">
-        <v>10371.3291015625</v>
-      </c>
-      <c r="G27">
+      <c r="F27" t="n">
+        <v>10307.9072265625</v>
+      </c>
+      <c r="G27" t="n">
         <v>1552211</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45329</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>10604</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>10652</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>10490</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>10490</v>
       </c>
-      <c r="F28">
-        <v>10328.0078125</v>
-      </c>
-      <c r="G28">
+      <c r="F28" t="n">
+        <v>10264.8515625</v>
+      </c>
+      <c r="G28" t="n">
         <v>2075810</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>45330</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>10404</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>10490</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>9700</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>9823</v>
       </c>
-      <c r="F29">
-        <v>9671.30859375</v>
-      </c>
-      <c r="G29">
+      <c r="F29" t="n">
+        <v>9612.16796875</v>
+      </c>
+      <c r="G29" t="n">
         <v>6500972</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>45331</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>9891</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>9983</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>9722</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>9761</v>
       </c>
-      <c r="F30">
-        <v>9610.265625</v>
-      </c>
-      <c r="G30">
+      <c r="F30" t="n">
+        <v>9551.498046875</v>
+      </c>
+      <c r="G30" t="n">
         <v>5562493</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>45334</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>9700</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>9734</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>9461</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>9501</v>
       </c>
-      <c r="F31">
-        <v>9354.28125</v>
-      </c>
-      <c r="G31">
+      <c r="F31" t="n">
+        <v>9297.078125</v>
+      </c>
+      <c r="G31" t="n">
         <v>4460371</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>45335</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>9586</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>9670</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>9550</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>9600</v>
       </c>
-      <c r="F32">
-        <v>9451.751953125</v>
-      </c>
-      <c r="G32">
+      <c r="F32" t="n">
+        <v>9393.953125</v>
+      </c>
+      <c r="G32" t="n">
         <v>2232817</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>45336</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>9649</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>9736</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>9541</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>9724</v>
       </c>
-      <c r="F33">
-        <v>9573.8369140625</v>
-      </c>
-      <c r="G33">
+      <c r="F33" t="n">
+        <v>9515.29296875</v>
+      </c>
+      <c r="G33" t="n">
         <v>6274728</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>45337</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>9729</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>9867</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>9674</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>9826</v>
       </c>
-      <c r="F34">
-        <v>9674.26171875</v>
-      </c>
-      <c r="G34">
+      <c r="F34" t="n">
+        <v>9615.103515625</v>
+      </c>
+      <c r="G34" t="n">
         <v>2047764</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>45338</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>9900</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>10112</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>9849</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>10094</v>
       </c>
-      <c r="F35">
-        <v>9938.123046875</v>
-      </c>
-      <c r="G35">
+      <c r="F35" t="n">
+        <v>9877.3515625</v>
+      </c>
+      <c r="G35" t="n">
         <v>2703767</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>10338</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>10498</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>10294</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>10418</v>
       </c>
-      <c r="F36">
-        <v>10257.1201171875</v>
-      </c>
-      <c r="G36">
+      <c r="F36" t="n">
+        <v>10194.396484375</v>
+      </c>
+      <c r="G36" t="n">
         <v>1881311</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>45342</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>10370</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>10428.396484375</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>10204</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>10204</v>
       </c>
-      <c r="F37">
-        <v>10046.4248046875</v>
-      </c>
-      <c r="G37">
+      <c r="F37" t="n">
+        <v>9984.990234375</v>
+      </c>
+      <c r="G37" t="n">
         <v>2386943</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>45343</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>10126</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>10180</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>10068</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>10102</v>
       </c>
-      <c r="F38">
-        <v>9946</v>
-      </c>
-      <c r="G38">
+      <c r="F38" t="n">
+        <v>9885.1796875</v>
+      </c>
+      <c r="G38" t="n">
         <v>1580412</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>45344</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>10030</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>10036</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>9822</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>10036</v>
       </c>
-      <c r="F39">
-        <v>10036</v>
-      </c>
-      <c r="G39">
+      <c r="F39" t="n">
+        <v>9974.62890625</v>
+      </c>
+      <c r="G39" t="n">
         <v>8891048</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>45345</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>10008</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>10254</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>9998</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>10220</v>
       </c>
-      <c r="F40">
-        <v>10220</v>
-      </c>
-      <c r="G40">
+      <c r="F40" t="n">
+        <v>10157.50390625</v>
+      </c>
+      <c r="G40" t="n">
         <v>4911338</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>45348</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>10222</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>10360</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>10222</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>10254</v>
       </c>
-      <c r="F41">
-        <v>10254</v>
-      </c>
-      <c r="G41">
+      <c r="F41" t="n">
+        <v>10191.2958984375</v>
+      </c>
+      <c r="G41" t="n">
         <v>5309043</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>45349</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>10246</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>10345.4677734375</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>10214</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>10328</v>
       </c>
-      <c r="F42">
-        <v>10328</v>
-      </c>
-      <c r="G42">
+      <c r="F42" t="n">
+        <v>10264.84375</v>
+      </c>
+      <c r="G42" t="n">
         <v>6762881</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>45350</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>10318</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>10344</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>10180</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>10180</v>
       </c>
-      <c r="F43">
-        <v>10180</v>
-      </c>
-      <c r="G43">
+      <c r="F43" t="n">
+        <v>10117.748046875</v>
+      </c>
+      <c r="G43" t="n">
         <v>2604518</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>45351</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>10202</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>10202</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>9982.001953125</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>9983</v>
       </c>
-      <c r="F44">
-        <v>9983</v>
-      </c>
-      <c r="G44">
+      <c r="F44" t="n">
+        <v>9921.953125</v>
+      </c>
+      <c r="G44" t="n">
         <v>4557961</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>10046</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>10114.412109375</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>10000.994140625</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>10080</v>
       </c>
-      <c r="F45">
-        <v>10080</v>
-      </c>
-      <c r="G45">
+      <c r="F45" t="n">
+        <v>10018.3603515625</v>
+      </c>
+      <c r="G45" t="n">
         <v>2743747</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>45355</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>10108</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>10128</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>10000.724609375</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>10046</v>
       </c>
-      <c r="F46">
-        <v>10046</v>
-      </c>
-      <c r="G46">
+      <c r="F46" t="n">
+        <v>9984.568359375</v>
+      </c>
+      <c r="G46" t="n">
         <v>2098271</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>45356</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>10090</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>10162</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>10012</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>10112</v>
       </c>
-      <c r="F47">
-        <v>10112</v>
-      </c>
-      <c r="G47">
+      <c r="F47" t="n">
+        <v>10050.1640625</v>
+      </c>
+      <c r="G47" t="n">
         <v>1476068</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>45357</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>10100</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>10158</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>10008</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>10140</v>
       </c>
-      <c r="F48">
-        <v>10140</v>
-      </c>
-      <c r="G48">
+      <c r="F48" t="n">
+        <v>10077.9931640625</v>
+      </c>
+      <c r="G48" t="n">
         <v>1953799</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>45358</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>10132</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>10250</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>10082</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>10234</v>
       </c>
-      <c r="F49">
-        <v>10234</v>
-      </c>
-      <c r="G49">
+      <c r="F49" t="n">
+        <v>10171.41796875</v>
+      </c>
+      <c r="G49" t="n">
         <v>2649188</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>45359</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>10214</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>10258</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>10142</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>10196</v>
       </c>
-      <c r="F50">
-        <v>10196</v>
-      </c>
-      <c r="G50">
+      <c r="F50" t="n">
+        <v>10133.650390625</v>
+      </c>
+      <c r="G50" t="n">
         <v>1607116</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>45362</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>10198</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>10450</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>10198</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>10450</v>
       </c>
-      <c r="F51">
-        <v>10450</v>
-      </c>
-      <c r="G51">
+      <c r="F51" t="n">
+        <v>10386.09765625</v>
+      </c>
+      <c r="G51" t="n">
         <v>8877859</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>45363</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>10498</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>10534</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>10430</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>10436</v>
       </c>
-      <c r="F52">
-        <v>10436</v>
-      </c>
-      <c r="G52">
+      <c r="F52" t="n">
+        <v>10372.1826171875</v>
+      </c>
+      <c r="G52" t="n">
         <v>3246477</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>45364</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>10434</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>10516</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>10348</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>10458</v>
       </c>
-      <c r="F53">
-        <v>10458</v>
-      </c>
-      <c r="G53">
+      <c r="F53" t="n">
+        <v>10394.048828125</v>
+      </c>
+      <c r="G53" t="n">
         <v>4183231</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>10480</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>10490</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>10388</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>10402</v>
       </c>
-      <c r="F54">
-        <v>10402</v>
-      </c>
-      <c r="G54">
+      <c r="F54" t="n">
+        <v>10338.390625</v>
+      </c>
+      <c r="G54" t="n">
         <v>2846632</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>10390</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>10488</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>10286</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>10294</v>
       </c>
-      <c r="F55">
-        <v>10294</v>
-      </c>
-      <c r="G55">
+      <c r="F55" t="n">
+        <v>10231.0517578125</v>
+      </c>
+      <c r="G55" t="n">
         <v>5253583</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>45369</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>10340</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>10340</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>10240</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>10290</v>
       </c>
-      <c r="F56">
-        <v>10290</v>
-      </c>
-      <c r="G56">
+      <c r="F56" t="n">
+        <v>10227.076171875</v>
+      </c>
+      <c r="G56" t="n">
         <v>3885042</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>45370</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>10236</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>10248</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>10162</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>10228</v>
       </c>
-      <c r="F57">
-        <v>10228</v>
-      </c>
-      <c r="G57">
+      <c r="F57" t="n">
+        <v>10165.455078125</v>
+      </c>
+      <c r="G57" t="n">
         <v>1773910</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>45371</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>10218</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>10236</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>10154</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>10164</v>
       </c>
-      <c r="F58">
-        <v>10164</v>
-      </c>
-      <c r="G58">
+      <c r="F58" t="n">
+        <v>10101.8466796875</v>
+      </c>
+      <c r="G58" t="n">
         <v>1102531</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>45372</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>10166</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>10446</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>10166</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>10428</v>
       </c>
-      <c r="F59">
-        <v>10428</v>
-      </c>
-      <c r="G59">
+      <c r="F59" t="n">
+        <v>10364.232421875</v>
+      </c>
+      <c r="G59" t="n">
         <v>1835813</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>45373</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>10390</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>10548</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>10380</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>10482</v>
       </c>
-      <c r="F60">
-        <v>10482</v>
-      </c>
-      <c r="G60">
+      <c r="F60" t="n">
+        <v>10417.9013671875</v>
+      </c>
+      <c r="G60" t="n">
         <v>1243838</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>45376</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>10434</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>10468</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>10352</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>10394</v>
       </c>
-      <c r="F61">
-        <v>10394</v>
-      </c>
-      <c r="G61">
+      <c r="F61" t="n">
+        <v>10330.439453125</v>
+      </c>
+      <c r="G61" t="n">
         <v>1557853</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>45377</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>10368</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>10440</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>10314</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>10440</v>
       </c>
-      <c r="F62">
-        <v>10440</v>
-      </c>
-      <c r="G62">
+      <c r="F62" t="n">
+        <v>10376.158203125</v>
+      </c>
+      <c r="G62" t="n">
         <v>1745893</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>45378</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>10460</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>10748</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>10454</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>10742</v>
       </c>
-      <c r="F63">
-        <v>10742</v>
-      </c>
-      <c r="G63">
+      <c r="F63" t="n">
+        <v>10676.3115234375</v>
+      </c>
+      <c r="G63" t="n">
         <v>2607662</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>45379</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>10756</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>10780</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>10674</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>10678</v>
       </c>
-      <c r="F64">
-        <v>10678</v>
-      </c>
-      <c r="G64">
+      <c r="F64" t="n">
+        <v>10612.703125</v>
+      </c>
+      <c r="G64" t="n">
         <v>1759110</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>